--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Presupuesto de Proyecto.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Presupuesto de Proyecto.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="152" documentId="11_CF051BE2B3213094BC47E77D6BD2585EC9CA57CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA600287-0CB6-4851-8FB4-8E1DF0C1286B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a1eba85bce628ab/Documentos/GitHub/2024_2_CO_CAPSTONE_003D_GRUPO_005/Fase 2/Evidencias Proyecto/Evidencias de documentación/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="159" documentId="11_CF051BE2B3213094BC47E77D6BD2585EC9CA57CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECCCC46-72F5-43E5-BB4C-C0B1DC7C03CF}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="21015" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto Detallado" sheetId="1" r:id="rId1"/>
@@ -118,7 +123,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,28 +589,28 @@
   </sheetPr>
   <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="2" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="26.25">
+    <row r="1" spans="2:9" ht="26" x14ac:dyDescent="0.6">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -613,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="18.75">
+    <row r="2" spans="2:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -622,7 +627,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -640,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
@@ -662,7 +667,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75">
+    <row r="6" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -688,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1">
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>1</v>
       </c>
@@ -702,7 +707,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
@@ -717,7 +722,7 @@
         <v>Hora</v>
       </c>
       <c r="G8" s="18">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" s="22">
         <f>VLOOKUP(D8,Datos!B8:E22,4,)</f>
@@ -725,10 +730,10 @@
       </c>
       <c r="I8" s="24">
         <f>H8*G8</f>
-        <v>5400000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>5385000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
@@ -754,7 +759,7 @@
         <v>8310000</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -769,7 +774,7 @@
         <v>Hora</v>
       </c>
       <c r="G10" s="18">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H10" s="22">
         <f>VLOOKUP(D10,Datos!B10:E24,4,)</f>
@@ -777,10 +782,10 @@
       </c>
       <c r="I10" s="24">
         <f t="shared" si="0"/>
-        <v>3030000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>3165000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -790,7 +795,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -800,7 +805,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -810,17 +815,17 @@
       </c>
       <c r="G15" s="18">
         <f>SUM(G8:G10)</f>
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="H15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="25">
         <f>I8+I9+I10</f>
-        <v>16740000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>16860000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -830,7 +835,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -840,7 +845,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -850,7 +855,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -860,7 +865,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -870,7 +875,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -880,7 +885,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -890,7 +895,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="15"/>
@@ -899,7 +904,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -908,7 +913,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="15"/>
@@ -917,7 +922,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="15"/>
@@ -926,7 +931,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="15"/>
@@ -935,7 +940,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="15"/>
@@ -944,7 +949,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="15"/>
@@ -953,7 +958,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="15"/>
@@ -962,7 +967,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="15"/>
@@ -971,7 +976,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="15"/>
@@ -980,7 +985,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="15"/>
@@ -989,7 +994,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="15"/>
@@ -998,7 +1003,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="15"/>
@@ -1007,7 +1012,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="15"/>
@@ -1016,7 +1021,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="15"/>
@@ -1025,7 +1030,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D38" s="12"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -1033,7 +1038,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1043,7 +1048,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
@@ -1053,7 +1058,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -1063,7 +1068,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -1073,7 +1078,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -1083,7 +1088,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -1093,7 +1098,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -1103,7 +1108,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -1113,7 +1118,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -1123,7 +1128,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -1133,7 +1138,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1143,7 +1148,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -1153,7 +1158,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -1163,7 +1168,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -1173,7 +1178,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -1183,7 +1188,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="15"/>
@@ -1192,7 +1197,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="12"/>
@@ -1202,7 +1207,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="12"/>
@@ -1212,7 +1217,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B57" s="12"/>
       <c r="C57" s="14"/>
       <c r="D57" s="12"/>
@@ -1222,7 +1227,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -1232,7 +1237,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -1242,7 +1247,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -1252,7 +1257,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -1262,7 +1267,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -1272,7 +1277,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -1282,7 +1287,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -1292,7 +1297,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -1302,7 +1307,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -1312,7 +1317,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -1322,7 +1327,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -1332,7 +1337,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -1342,7 +1347,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -1352,7 +1357,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="15"/>
@@ -1363,7 +1368,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1375,24 +1380,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="1.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1796875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="26.25">
+    <row r="1" spans="2:6" ht="26" x14ac:dyDescent="0.6">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1400,24 +1405,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="18.75">
+    <row r="2" spans="2:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15.75">
+    <row r="3" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" ht="15.75">
+    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="15.75">
+    <row r="6" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1431,13 +1436,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1479,73 +1484,73 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
